--- a/casedata_ex.xlsx
+++ b/casedata_ex.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="casedata_ex" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>arbaminch</t>
   </si>
@@ -65,6 +65,18 @@
   </si>
   <si>
     <t>a= 0, b=6, c=2</t>
+  </si>
+  <si>
+    <t>attr4</t>
+  </si>
+  <si>
+    <t>yesnotest</t>
+  </si>
+  <si>
+    <t>drange</t>
+  </si>
+  <si>
+    <t>lower=0, upper=1</t>
   </si>
 </sst>
 </file>
@@ -97,7 +109,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,7 +125,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBFEBF6"/>
-        <bgColor rgb="FFCCFFFF"/>
+        <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FFFF"/>
+        <bgColor rgb="FFBFEBF6"/>
       </patternFill>
     </fill>
   </fills>
@@ -151,7 +169,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -164,15 +182,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -220,7 +246,7 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF99FFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
@@ -253,17 +279,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.1173469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="13.8061224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.1020408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.0918367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="14.6530612244898"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -287,21 +313,21 @@
         <v>121000</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="true" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+    <row r="4" s="3" customFormat="true" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="3" t="s">
+    <row r="5" s="5" customFormat="true" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="3" t="s">
+    <row r="6" s="5" customFormat="true" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -309,36 +335,56 @@
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0"/>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="true" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+    <row r="10" s="3" customFormat="true" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="5" t="s">
+    <row r="11" s="5" customFormat="true" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="5" t="s">
+    <row r="12" s="5" customFormat="true" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="7" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="true" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0"/>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/casedata_ex.xlsx
+++ b/casedata_ex.xlsx
@@ -5,69 +5,118 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="casedata_ex" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="casedata_test" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="casedata_ex" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="Unspecified"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
   <si>
     <t>arbaminch</t>
   </si>
   <si>
+    <t>thimi</t>
+  </si>
+  <si>
     <t>Descripton</t>
   </si>
   <si>
     <t>Rural town in southern Ethiopia</t>
   </si>
   <si>
+    <t>Periurban area close to Kathmandu, Nepal</t>
+  </si>
+  <si>
     <t>Inhabitants</t>
   </si>
   <si>
     <t>attr1</t>
   </si>
   <si>
+    <t>bod</t>
+  </si>
+  <si>
+    <t>prange</t>
+  </si>
+  <si>
+    <t>lower=-Inf, upper=100</t>
+  </si>
+  <si>
+    <t>lower=-Inf, upper=50</t>
+  </si>
+  <si>
+    <t>attr2</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>dtriangle</t>
+  </si>
+  <si>
+    <t>a=0, b=150, c=15</t>
+  </si>
+  <si>
+    <t>a=0,b=150,c=5</t>
+  </si>
+  <si>
+    <t>attr3</t>
+  </si>
+  <si>
+    <t>temp</t>
+  </si>
+  <si>
+    <t>a=0, b=50, c=40</t>
+  </si>
+  <si>
+    <t>attr4</t>
+  </si>
+  <si>
+    <t>omskil</t>
+  </si>
+  <si>
+    <t>a=0, b=5, c=1</t>
+  </si>
+  <si>
+    <t>a=0, b=4, c=1</t>
+  </si>
+  <si>
+    <t>attr5</t>
+  </si>
+  <si>
+    <t>electricity</t>
+  </si>
+  <si>
+    <t>dcat</t>
+  </si>
+  <si>
+    <t>c(no=0.6,yes=0.4)</t>
+  </si>
+  <si>
     <t>bod.liquid</t>
   </si>
   <si>
-    <t>prange</t>
-  </si>
-  <si>
     <t>lower=-Inf, upper=600</t>
   </si>
   <si>
-    <t>attr2</t>
-  </si>
-  <si>
-    <t>temp</t>
-  </si>
-  <si>
-    <t>dtriangle</t>
-  </si>
-  <si>
     <t>a= 5, b=45, c=26</t>
   </si>
   <si>
-    <t>attr3</t>
-  </si>
-  <si>
     <t>omskill</t>
   </si>
   <si>
     <t>a= 0, b=6, c=2</t>
-  </si>
-  <si>
-    <t>attr4</t>
   </si>
   <si>
     <t>yesnotest</t>
@@ -279,17 +328,212 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.2397959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.4489795918367"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.4591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>95000</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.1020408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.0918367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="14.6530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.1122448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.8061224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="15.8316326530612"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -299,15 +543,15 @@
     </row>
     <row r="2" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>121000</v>
@@ -315,76 +559,74 @@
     </row>
     <row r="4" s="3" customFormat="true" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" s="5" customFormat="true" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" s="5" customFormat="true" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="4" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="true" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="6" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" s="3" customFormat="true" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" s="5" customFormat="true" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" s="5" customFormat="true" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="7" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="true" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="6" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/casedata_ex.xlsx
+++ b/casedata_ex.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="casedata_test" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="casedata_ex" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="casedata_demo" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="casedata_test" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="casedata_ex" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="36">
   <si>
     <t>arbaminch</t>
   </si>
@@ -102,6 +103,9 @@
   </si>
   <si>
     <t>c(no=0.6,yes=0.4)</t>
+  </si>
+  <si>
+    <t>c(no=0.2,yes=0.8)</t>
   </si>
   <si>
     <t>bod.liquid</t>
@@ -331,14 +335,14 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.2397959183673"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.4489795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.4591836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.4285714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.6275510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.6275510204082"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -496,7 +500,7 @@
         <v>25</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -504,7 +508,7 @@
         <v>26</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -523,6 +527,201 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.5663265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.1887755102041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.484693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.8367346938776"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>95000</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -531,9 +730,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.1122448979592"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.8061224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="15.8316326530612"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5051020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.030612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="16.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -562,7 +761,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" s="5" customFormat="true" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -572,7 +771,7 @@
     </row>
     <row r="6" s="5" customFormat="true" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="true" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -590,7 +789,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" s="3" customFormat="true" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -598,7 +797,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" s="5" customFormat="true" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -608,7 +807,7 @@
     </row>
     <row r="12" s="5" customFormat="true" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="true" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -616,17 +815,17 @@
         <v>19</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
